--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -8,32 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.bmwusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D968AF-8C70-4883-AEBE-BF9FE456BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D32A88-27B1-4868-9A68-6E7A5582EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{251A7DFF-E09C-4EB1-9369-91631BC1E9BC}"/>
+    <workbookView xWindow="5628" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{251A7DFF-E09C-4EB1-9369-91631BC1E9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="doSearch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>email</t>
   </si>
@@ -63,13 +56,34 @@
   </si>
   <si>
     <t>AydenLiam1213@</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>BMW M4</t>
+  </si>
+  <si>
+    <t>BMW M8</t>
+  </si>
+  <si>
+    <t>BMW X2</t>
+  </si>
+  <si>
+    <t>BMW X5</t>
+  </si>
+  <si>
+    <t>BMW I4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +103,12 @@
       <sz val="8"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEF0B24-0751-4F4C-A085-76A21AF2692C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -492,4 +512,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDF194-2A6F-438F-ABF1-F8B7E63723C1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.bmwusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D32A88-27B1-4868-9A68-6E7A5582EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E01785-35E8-460D-9869-6117A4D51740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{251A7DFF-E09C-4EB1-9369-91631BC1E9BC}"/>
+    <workbookView xWindow="4164" yWindow="1788" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{251A7DFF-E09C-4EB1-9369-91631BC1E9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>email</t>
   </si>
@@ -64,19 +64,40 @@
     <t>year</t>
   </si>
   <si>
-    <t>BMW M4</t>
-  </si>
-  <si>
-    <t>BMW M8</t>
-  </si>
-  <si>
     <t>BMW X2</t>
   </si>
   <si>
     <t>BMW X5</t>
   </si>
   <si>
-    <t>BMW I4</t>
+    <t>BMW X3M</t>
+  </si>
+  <si>
+    <t>BMW X1</t>
+  </si>
+  <si>
+    <t>BMW X4</t>
+  </si>
+  <si>
+    <t>BMW X4M</t>
+  </si>
+  <si>
+    <t>BMW  X6M</t>
+  </si>
+  <si>
+    <t>BMW X6</t>
+  </si>
+  <si>
+    <t>BMW XM</t>
+  </si>
+  <si>
+    <t>BMW  IX</t>
+  </si>
+  <si>
+    <t>BMW X7</t>
+  </si>
+  <si>
+    <t>BMW M3</t>
   </si>
 </sst>
 </file>
@@ -516,13 +537,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDF194-2A6F-438F-ABF1-F8B7E63723C1}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -534,7 +558,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -542,15 +566,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -558,7 +582,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -569,6 +593,62 @@
         <v>16</v>
       </c>
       <c r="B6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
         <v>2022</v>
       </c>
     </row>
